--- a/output/5Y_P25_KFSDIV.xlsx
+++ b/output/5Y_P25_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-22</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-21</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-19</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-17</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.4338</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9657</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3568</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2487</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3991</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.5985</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.6955</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3398</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.8469</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.129</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.716</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.4613</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.6545</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2345</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.1636</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.8145</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2352</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.8241</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2543</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5675</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967000000000001</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0064</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0129</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4583</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-22</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-21</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-19</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-17</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -5409,10 +5412,10 @@
         <v>231680.9792</v>
       </c>
       <c r="K21" s="1">
-        <v>166918.65</v>
+        <v>166940.6057</v>
       </c>
       <c r="L21" s="1">
-        <v>13.4417</v>
+        <v>13.4435</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -5462,10 +5465,10 @@
         <v>232282.2899</v>
       </c>
       <c r="K22" s="1">
-        <v>176552.3098</v>
+        <v>176574.2655</v>
       </c>
       <c r="L22" s="1">
-        <v>13.5354</v>
+        <v>13.5371</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -5515,10 +5518,10 @@
         <v>266007.765</v>
       </c>
       <c r="K23" s="1">
-        <v>195990.1374</v>
+        <v>196012.0932</v>
       </c>
       <c r="L23" s="1">
-        <v>13.6404</v>
+        <v>13.6419</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -5568,10 +5571,10 @@
         <v>286091.7507</v>
       </c>
       <c r="K24" s="1">
-        <v>193918.1449</v>
+        <v>193948.3795</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6227</v>
+        <v>13.6249</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -5621,10 +5624,10 @@
         <v>299367.4229</v>
       </c>
       <c r="K25" s="1">
-        <v>193833.8224</v>
+        <v>193864.3938</v>
       </c>
       <c r="L25" s="1">
-        <v>13.6218</v>
+        <v>13.6239</v>
       </c>
       <c r="M25" s="1">
         <v>0.75</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -5674,10 +5677,10 @@
         <v>328888.9002</v>
       </c>
       <c r="K26" s="1">
-        <v>200585.0991</v>
+        <v>200615.6704</v>
       </c>
       <c r="L26" s="1">
-        <v>13.7013</v>
+        <v>13.7034</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -5727,10 +5730,10 @@
         <v>335708.1755</v>
       </c>
       <c r="K27" s="1">
-        <v>200641.9336</v>
+        <v>200672.505</v>
       </c>
       <c r="L27" s="1">
-        <v>13.7021</v>
+        <v>13.7042</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -5780,10 +5783,10 @@
         <v>351306.7036</v>
       </c>
       <c r="K28" s="1">
-        <v>213875.2921</v>
+        <v>213905.8635</v>
       </c>
       <c r="L28" s="1">
-        <v>13.8654</v>
+        <v>13.8674</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -5833,10 +5836,10 @@
         <v>344563.8363</v>
       </c>
       <c r="K29" s="1">
-        <v>231473.1165</v>
+        <v>231503.6879</v>
       </c>
       <c r="L29" s="1">
-        <v>14.0321</v>
+        <v>14.0339</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -5886,10 +5889,10 @@
         <v>340791.3284</v>
       </c>
       <c r="K30" s="1">
-        <v>258252.6175</v>
+        <v>258283.1889</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1641</v>
+        <v>14.1658</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -5939,10 +5942,10 @@
         <v>318389.6827</v>
       </c>
       <c r="K31" s="1">
-        <v>282013.0741</v>
+        <v>282043.6455</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2051</v>
+        <v>14.2066</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -5992,10 +5995,10 @@
         <v>356272.1953</v>
       </c>
       <c r="K32" s="1">
-        <v>324489.5939</v>
+        <v>324520.1652</v>
       </c>
       <c r="L32" s="1">
-        <v>14.0397</v>
+        <v>14.041</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -6045,10 +6048,10 @@
         <v>379417.7777</v>
       </c>
       <c r="K33" s="1">
-        <v>315334.5103</v>
+        <v>315401.6684</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0449</v>
+        <v>14.0479</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -6098,10 +6101,10 @@
         <v>363206.8945</v>
       </c>
       <c r="K34" s="1">
-        <v>312176.3174</v>
+        <v>312256.086</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0409</v>
+        <v>14.0445</v>
       </c>
       <c r="M34" s="1">
         <v>0.4</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -6151,10 +6154,10 @@
         <v>359670.6868</v>
       </c>
       <c r="K35" s="1">
-        <v>348532.4399</v>
+        <v>348612.2085</v>
       </c>
       <c r="L35" s="1">
-        <v>13.956</v>
+        <v>13.9592</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -6204,10 +6207,10 @@
         <v>357911.616</v>
       </c>
       <c r="K36" s="1">
-        <v>380053.4252</v>
+        <v>380133.1938</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8129</v>
+        <v>13.8158</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -6257,10 +6260,10 @@
         <v>375004.0359</v>
       </c>
       <c r="K37" s="1">
-        <v>401773.3078</v>
+        <v>401853.0764</v>
       </c>
       <c r="L37" s="1">
-        <v>13.6998</v>
+        <v>13.7025</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -6310,10 +6313,10 @@
         <v>416495.6441</v>
       </c>
       <c r="K38" s="1">
-        <v>404605.3867</v>
+        <v>404685.1553</v>
       </c>
       <c r="L38" s="1">
-        <v>13.6882</v>
+        <v>13.6909</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.4338</v>
@@ -6363,10 +6366,10 @@
         <v>441398.6531</v>
       </c>
       <c r="K39" s="1">
-        <v>393616.2614</v>
+        <v>393739.9372</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7104</v>
+        <v>13.7147</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9657</v>
@@ -6416,10 +6419,10 @@
         <v>438159.351</v>
       </c>
       <c r="K40" s="1">
-        <v>388693.5772</v>
+        <v>388836.9282</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7136</v>
+        <v>13.7187</v>
       </c>
       <c r="M40" s="1">
         <v>0.3</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3568</v>
@@ -6469,10 +6472,10 @@
         <v>467482.3906</v>
       </c>
       <c r="K41" s="1">
-        <v>412026.0895</v>
+        <v>412169.4404</v>
       </c>
       <c r="L41" s="1">
-        <v>13.6706</v>
+        <v>13.6754</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2487</v>
@@ -6522,10 +6525,10 @@
         <v>474244.6055</v>
       </c>
       <c r="K42" s="1">
-        <v>410255.5379</v>
+        <v>410405.9665</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6719</v>
+        <v>13.6769</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3991</v>
@@ -6575,10 +6578,10 @@
         <v>488845.9121</v>
       </c>
       <c r="K43" s="1">
-        <v>423546.3855</v>
+        <v>423696.8141</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6591</v>
+        <v>13.6639</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.5985</v>
@@ -6628,10 +6631,10 @@
         <v>516237.763</v>
       </c>
       <c r="K44" s="1">
-        <v>428913.4432</v>
+        <v>429063.8718</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6561</v>
+        <v>13.6609</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.6955</v>
@@ -6681,10 +6684,10 @@
         <v>529289.7928000001</v>
       </c>
       <c r="K45" s="1">
-        <v>432678.2402</v>
+        <v>432828.6689</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6558</v>
+        <v>13.6606</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3398</v>
@@ -6734,10 +6737,10 @@
         <v>527833.9266</v>
       </c>
       <c r="K46" s="1">
-        <v>439638.9761</v>
+        <v>439789.4047</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6569</v>
+        <v>13.6616</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.8469</v>
@@ -6787,10 +6790,10 @@
         <v>529812.8919</v>
       </c>
       <c r="K47" s="1">
-        <v>461152.9957</v>
+        <v>461303.4243</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6431</v>
+        <v>13.6475</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.129</v>
@@ -6840,10 +6843,10 @@
         <v>549805.8239</v>
       </c>
       <c r="K48" s="1">
-        <v>487886.5986</v>
+        <v>488037.0272</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5985</v>
+        <v>13.6027</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.716</v>
@@ -6893,10 +6896,10 @@
         <v>545023.6034</v>
       </c>
       <c r="K49" s="1">
-        <v>487786.5198</v>
+        <v>487937.3486</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5986</v>
+        <v>13.6028</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.4613</v>
@@ -6946,10 +6949,10 @@
         <v>554994.5571</v>
       </c>
       <c r="K50" s="1">
-        <v>512668.1378</v>
+        <v>512818.9666</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5543</v>
+        <v>13.5583</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.6545</v>
@@ -6999,10 +7002,10 @@
         <v>572512.2655</v>
       </c>
       <c r="K51" s="1">
-        <v>532361.5155</v>
+        <v>532512.3443</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5116</v>
+        <v>13.5154</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2345</v>
@@ -7052,10 +7055,10 @@
         <v>565906.1572</v>
       </c>
       <c r="K52" s="1">
-        <v>534774.7542</v>
+        <v>534925.5829</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5076</v>
+        <v>13.5114</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.1636</v>
@@ -7105,10 +7108,10 @@
         <v>583535.8648</v>
       </c>
       <c r="K53" s="1">
-        <v>561477.9475</v>
+        <v>561628.7763</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4424</v>
+        <v>13.4461</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.8145</v>
@@ -7158,10 +7161,10 @@
         <v>578559.8106</v>
       </c>
       <c r="K54" s="1">
-        <v>574482.9834</v>
+        <v>574633.8122</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4112</v>
+        <v>13.4147</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2352</v>
@@ -7211,10 +7214,10 @@
         <v>562469.7828</v>
       </c>
       <c r="K55" s="1">
-        <v>599507.0577</v>
+        <v>599657.8864</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3372</v>
+        <v>13.3406</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.8241</v>
@@ -7264,10 +7267,10 @@
         <v>564701.9067000001</v>
       </c>
       <c r="K56" s="1">
-        <v>635641.5399</v>
+        <v>635792.3687</v>
       </c>
       <c r="L56" s="1">
-        <v>13.1986</v>
+        <v>13.2018</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2543</v>
@@ -7317,10 +7320,10 @@
         <v>596445.0767</v>
       </c>
       <c r="K57" s="1">
-        <v>665521.0192</v>
+        <v>665671.848</v>
       </c>
       <c r="L57" s="1">
-        <v>13.0713</v>
+        <v>13.0743</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5675</v>
@@ -7370,10 +7373,10 @@
         <v>572272.1036</v>
       </c>
       <c r="K58" s="1">
-        <v>653610.6515</v>
+        <v>653809.1137</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1093</v>
+        <v>13.1133</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967000000000001</v>
@@ -7423,10 +7426,10 @@
         <v>563166.4164</v>
       </c>
       <c r="K59" s="1">
-        <v>697960.7958</v>
+        <v>698159.258</v>
       </c>
       <c r="L59" s="1">
-        <v>12.914</v>
+        <v>12.9177</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0064</v>
@@ -7476,10 +7479,10 @@
         <v>575288.3225</v>
       </c>
       <c r="K60" s="1">
-        <v>733517.5065</v>
+        <v>733715.9687</v>
       </c>
       <c r="L60" s="1">
-        <v>12.7331</v>
+        <v>12.7365</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0129</v>
@@ -7529,10 +7532,10 @@
         <v>585629.258</v>
       </c>
       <c r="K61" s="1">
-        <v>743517.5065</v>
+        <v>743715.9687</v>
       </c>
       <c r="L61" s="1">
-        <v>12.687</v>
+        <v>12.6904</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4583</v>
@@ -7582,10 +7585,10 @@
         <v>637905.2681</v>
       </c>
       <c r="K62" s="1">
-        <v>753517.5065</v>
+        <v>753715.9687</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6426</v>
+        <v>12.646</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-22</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-21</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-19</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-17</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -8721,10 +8724,10 @@
         <v>232898.5204</v>
       </c>
       <c r="K21" s="1">
-        <v>174983.659</v>
+        <v>175004.5558</v>
       </c>
       <c r="L21" s="1">
-        <v>13.4676</v>
+        <v>13.4692</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -8774,10 +8777,10 @@
         <v>233037.6834</v>
       </c>
       <c r="K22" s="1">
-        <v>185596.4725</v>
+        <v>185617.3693</v>
       </c>
       <c r="L22" s="1">
-        <v>13.5647</v>
+        <v>13.5662</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -8827,10 +8830,10 @@
         <v>267954.5499</v>
       </c>
       <c r="K23" s="1">
-        <v>206547.5349</v>
+        <v>206568.4317</v>
       </c>
       <c r="L23" s="1">
-        <v>13.6695</v>
+        <v>13.6709</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -8880,10 +8883,10 @@
         <v>288586.0187</v>
       </c>
       <c r="K24" s="1">
-        <v>204958.9508</v>
+        <v>204986.1949</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6569</v>
+        <v>13.6587</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -8933,10 +8936,10 @@
         <v>302046.2014</v>
       </c>
       <c r="K25" s="1">
-        <v>205489.3214</v>
+        <v>205516.5655</v>
       </c>
       <c r="L25" s="1">
-        <v>13.6625</v>
+        <v>13.6643</v>
       </c>
       <c r="M25" s="1">
         <v>0.75</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -8986,10 +8989,10 @@
         <v>332704.0635</v>
       </c>
       <c r="K26" s="1">
-        <v>213273.6133</v>
+        <v>213300.8574</v>
       </c>
       <c r="L26" s="1">
-        <v>13.7478</v>
+        <v>13.7495</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -9039,10 +9042,10 @@
         <v>339322.2667</v>
       </c>
       <c r="K27" s="1">
-        <v>214011.4967</v>
+        <v>214038.7408</v>
       </c>
       <c r="L27" s="1">
-        <v>13.7571</v>
+        <v>13.7589</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -9092,10 +9095,10 @@
         <v>355246.7291</v>
       </c>
       <c r="K28" s="1">
-        <v>228777.2827</v>
+        <v>228804.5268</v>
       </c>
       <c r="L28" s="1">
-        <v>13.9253</v>
+        <v>13.9269</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -9145,10 +9148,10 @@
         <v>347366.0834</v>
       </c>
       <c r="K29" s="1">
-        <v>248257.0652</v>
+        <v>248284.3094</v>
       </c>
       <c r="L29" s="1">
-        <v>14.0941</v>
+        <v>14.0956</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -9198,10 +9201,10 @@
         <v>342619.5857</v>
       </c>
       <c r="K30" s="1">
-        <v>277618.6551</v>
+        <v>277645.8992</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2233</v>
+        <v>14.2247</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -9251,10 +9254,10 @@
         <v>317841.4343</v>
       </c>
       <c r="K31" s="1">
-        <v>303851.3899</v>
+        <v>303878.634</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2605</v>
+        <v>14.2617</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -9304,10 +9307,10 @@
         <v>357815.665</v>
       </c>
       <c r="K32" s="1">
-        <v>350266.5025</v>
+        <v>350293.7466</v>
       </c>
       <c r="L32" s="1">
-        <v>14.0845</v>
+        <v>14.0856</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -9357,10 +9360,10 @@
         <v>381996.5327</v>
       </c>
       <c r="K33" s="1">
-        <v>341273.0494</v>
+        <v>341336.2343</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0905</v>
+        <v>14.0931</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -9410,10 +9413,10 @@
         <v>363648.9516</v>
       </c>
       <c r="K34" s="1">
-        <v>338754.1948</v>
+        <v>338827.4375</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0879</v>
+        <v>14.0909</v>
       </c>
       <c r="M34" s="1">
         <v>0.4</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -9463,10 +9466,10 @@
         <v>358946.2705</v>
       </c>
       <c r="K35" s="1">
-        <v>378992.9572</v>
+        <v>379066.1998</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9959</v>
+        <v>13.9986</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -9516,10 +9519,10 @@
         <v>356190.2803</v>
       </c>
       <c r="K36" s="1">
-        <v>413320.9743</v>
+        <v>413394.2169</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8486</v>
+        <v>13.8511</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -9569,10 +9572,10 @@
         <v>373660.8284</v>
       </c>
       <c r="K37" s="1">
-        <v>423320.9743</v>
+        <v>423394.2169</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7978</v>
+        <v>13.8002</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -9622,10 +9625,10 @@
         <v>416985.2323</v>
       </c>
       <c r="K38" s="1">
-        <v>433320.9743</v>
+        <v>433394.2169</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7571</v>
+        <v>13.7594</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.4338</v>
@@ -9675,10 +9678,10 @@
         <v>443311.1909</v>
       </c>
       <c r="K39" s="1">
-        <v>432706.0277</v>
+        <v>432781.7274</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7583</v>
+        <v>13.7607</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9657</v>
@@ -9728,10 +9731,10 @@
         <v>438770.4481</v>
       </c>
       <c r="K40" s="1">
-        <v>428389.4558</v>
+        <v>428482.4081</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7614</v>
+        <v>13.7644</v>
       </c>
       <c r="M40" s="1">
         <v>0.3</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3568</v>
@@ -9781,10 +9784,10 @@
         <v>470021.8331</v>
       </c>
       <c r="K41" s="1">
-        <v>455123.7709</v>
+        <v>455216.7231</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7137</v>
+        <v>13.7165</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2487</v>
@@ -9834,10 +9837,10 @@
         <v>476447.4116</v>
       </c>
       <c r="K42" s="1">
-        <v>454314.6115</v>
+        <v>454410.7983</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7143</v>
+        <v>13.7172</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3991</v>
@@ -9887,10 +9890,10 @@
         <v>491535.7007</v>
       </c>
       <c r="K43" s="1">
-        <v>470160.2376</v>
+        <v>470256.4244</v>
       </c>
       <c r="L43" s="1">
-        <v>13.699</v>
+        <v>13.7018</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.5985</v>
@@ -9940,10 +9943,10 @@
         <v>520798.4145</v>
       </c>
       <c r="K44" s="1">
-        <v>477306.197</v>
+        <v>477402.3838</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6948</v>
+        <v>13.6976</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.6955</v>
@@ -9993,10 +9996,10 @@
         <v>534189.0434</v>
       </c>
       <c r="K45" s="1">
-        <v>482722.3916</v>
+        <v>482818.5784</v>
       </c>
       <c r="L45" s="1">
-        <v>13.694</v>
+        <v>13.6968</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3398</v>
@@ -10046,10 +10049,10 @@
         <v>531405.8676999999</v>
       </c>
       <c r="K46" s="1">
-        <v>491738.1202</v>
+        <v>491834.307</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6946</v>
+        <v>13.6972</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.8469</v>
@@ -10099,10 +10102,10 @@
         <v>532405.758</v>
       </c>
       <c r="K47" s="1">
-        <v>517040.3155</v>
+        <v>517136.5023</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6781</v>
+        <v>13.6807</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.129</v>
@@ -10152,10 +10155,10 @@
         <v>553604.9256</v>
       </c>
       <c r="K48" s="1">
-        <v>548275.3031</v>
+        <v>548371.4898</v>
       </c>
       <c r="L48" s="1">
-        <v>13.6295</v>
+        <v>13.6319</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.716</v>
@@ -10205,10 +10208,10 @@
         <v>546982.8907</v>
       </c>
       <c r="K49" s="1">
-        <v>549535.2419</v>
+        <v>549631.4287</v>
       </c>
       <c r="L49" s="1">
-        <v>13.6284</v>
+        <v>13.6308</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.4613</v>
@@ -10258,10 +10261,10 @@
         <v>556916.5697</v>
       </c>
       <c r="K50" s="1">
-        <v>578911.2742</v>
+        <v>579007.461</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5805</v>
+        <v>13.5827</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.6545</v>
@@ -10311,10 +10314,10 @@
         <v>575405.7971</v>
       </c>
       <c r="K51" s="1">
-        <v>602546.7283</v>
+        <v>602642.9151</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5339</v>
+        <v>13.5361</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2345</v>
@@ -10364,10 +10367,10 @@
         <v>566586.8149999999</v>
       </c>
       <c r="K52" s="1">
-        <v>606748.2603</v>
+        <v>606844.4471</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5276</v>
+        <v>13.5298</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.1636</v>
@@ -10417,10 +10420,10 @@
         <v>585243.3733</v>
       </c>
       <c r="K53" s="1">
-        <v>635685.6279</v>
+        <v>635781.8147</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4642</v>
+        <v>13.4662</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.8145</v>
@@ -10470,10 +10473,10 @@
         <v>578171.284</v>
       </c>
       <c r="K54" s="1">
-        <v>654809.159</v>
+        <v>654905.3458</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4231</v>
+        <v>13.4251</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2352</v>
@@ -10523,10 +10526,10 @@
         <v>559279.3038</v>
       </c>
       <c r="K55" s="1">
-        <v>667795.8123</v>
+        <v>667891.9991</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3883</v>
+        <v>13.3902</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.8241</v>
@@ -10576,10 +10579,10 @@
         <v>561876.8328</v>
       </c>
       <c r="K56" s="1">
-        <v>677795.8123</v>
+        <v>677891.9991</v>
       </c>
       <c r="L56" s="1">
-        <v>13.351</v>
+        <v>13.3529</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2543</v>
@@ -10629,10 +10632,10 @@
         <v>594511.5419</v>
       </c>
       <c r="K57" s="1">
-        <v>701263.1673</v>
+        <v>701359.3541</v>
       </c>
       <c r="L57" s="1">
-        <v>13.2486</v>
+        <v>13.2504</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5675</v>
@@ -10682,10 +10685,10 @@
         <v>567584.7807</v>
       </c>
       <c r="K58" s="1">
-        <v>711263.1673</v>
+        <v>711359.3541</v>
       </c>
       <c r="L58" s="1">
-        <v>13.2161</v>
+        <v>13.2179</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967000000000001</v>
@@ -10735,10 +10738,10 @@
         <v>559256.6273000001</v>
       </c>
       <c r="K59" s="1">
-        <v>721263.1673</v>
+        <v>721359.3541</v>
       </c>
       <c r="L59" s="1">
-        <v>13.1708</v>
+        <v>13.1726</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0064</v>
@@ -10788,10 +10791,10 @@
         <v>571407.3108</v>
       </c>
       <c r="K60" s="1">
-        <v>745793.9922</v>
+        <v>745890.1789000001</v>
       </c>
       <c r="L60" s="1">
-        <v>13.0341</v>
+        <v>13.0358</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0129</v>
@@ -10841,10 +10844,10 @@
         <v>581745.7202</v>
       </c>
       <c r="K61" s="1">
-        <v>755793.9922</v>
+        <v>755890.1789000001</v>
       </c>
       <c r="L61" s="1">
-        <v>12.9826</v>
+        <v>12.9843</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4583</v>
@@ -10894,10 +10897,10 @@
         <v>633744.0544</v>
       </c>
       <c r="K62" s="1">
-        <v>765793.9922</v>
+        <v>765890.1789000001</v>
       </c>
       <c r="L62" s="1">
-        <v>12.933</v>
+        <v>12.9346</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-22</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-21</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-19</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-17</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -12033,10 +12036,10 @@
         <v>234113.8627</v>
       </c>
       <c r="K21" s="1">
-        <v>183586.8001</v>
+        <v>183606.4541</v>
       </c>
       <c r="L21" s="1">
-        <v>13.4975</v>
+        <v>13.4989</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -12086,10 +12089,10 @@
         <v>233762.0666</v>
       </c>
       <c r="K22" s="1">
-        <v>195271.1578</v>
+        <v>195290.8118</v>
       </c>
       <c r="L22" s="1">
-        <v>13.5978</v>
+        <v>13.5991</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -12139,10 +12142,10 @@
         <v>269946.3511</v>
       </c>
       <c r="K23" s="1">
-        <v>217868.4173</v>
+        <v>217888.0713</v>
       </c>
       <c r="L23" s="1">
-        <v>13.702</v>
+        <v>13.7032</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -12192,10 +12195,10 @@
         <v>291163.2204</v>
       </c>
       <c r="K24" s="1">
-        <v>216838.1735</v>
+        <v>216861.9439</v>
       </c>
       <c r="L24" s="1">
-        <v>13.6944</v>
+        <v>13.6959</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -12245,10 +12248,10 @@
         <v>304820.8174</v>
       </c>
       <c r="K25" s="1">
-        <v>218073.3951</v>
+        <v>218097.1655</v>
       </c>
       <c r="L25" s="1">
-        <v>13.7065</v>
+        <v>13.708</v>
       </c>
       <c r="M25" s="1">
         <v>0.75</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -12298,10 +12301,10 @@
         <v>336699.8245</v>
       </c>
       <c r="K26" s="1">
-        <v>227018.2006</v>
+        <v>227041.971</v>
       </c>
       <c r="L26" s="1">
-        <v>13.7974</v>
+        <v>13.7989</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -12351,10 +12354,10 @@
         <v>343100.6206</v>
       </c>
       <c r="K27" s="1">
-        <v>228546.3309</v>
+        <v>228570.1013</v>
       </c>
       <c r="L27" s="1">
-        <v>13.8155</v>
+        <v>13.8169</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -12404,10 +12407,10 @@
         <v>359375.0996</v>
       </c>
       <c r="K28" s="1">
-        <v>245029.5906</v>
+        <v>245053.3611</v>
       </c>
       <c r="L28" s="1">
-        <v>13.9883</v>
+        <v>13.9896</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -12457,10 +12460,10 @@
         <v>350256.8836</v>
       </c>
       <c r="K29" s="1">
-        <v>266616.6609</v>
+        <v>266640.4314</v>
       </c>
       <c r="L29" s="1">
-        <v>14.1588</v>
+        <v>14.1601</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -12510,10 +12513,10 @@
         <v>344447.3255</v>
       </c>
       <c r="K30" s="1">
-        <v>298859.4776</v>
+        <v>298883.2481</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2847</v>
+        <v>14.2859</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -12563,10 +12566,10 @@
         <v>317066.8659</v>
       </c>
       <c r="K31" s="1">
-        <v>327869.0405</v>
+        <v>327892.811</v>
       </c>
       <c r="L31" s="1">
-        <v>14.3177</v>
+        <v>14.3187</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -12616,10 +12619,10 @@
         <v>358088.2731</v>
       </c>
       <c r="K32" s="1">
-        <v>357696.5778</v>
+        <v>357720.3482</v>
       </c>
       <c r="L32" s="1">
-        <v>14.2009</v>
+        <v>14.2018</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -12669,10 +12672,10 @@
         <v>383356.0561</v>
       </c>
       <c r="K33" s="1">
-        <v>371294.8805</v>
+        <v>371318.651</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1882</v>
+        <v>14.1891</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -12722,10 +12725,10 @@
         <v>362645.0363</v>
       </c>
       <c r="K34" s="1">
-        <v>369579.1775</v>
+        <v>369609.7987</v>
       </c>
       <c r="L34" s="1">
-        <v>14.187</v>
+        <v>14.1882</v>
       </c>
       <c r="M34" s="1">
         <v>0.4</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -12775,10 +12778,10 @@
         <v>357757.2988</v>
       </c>
       <c r="K35" s="1">
-        <v>397994.5551</v>
+        <v>398025.1762</v>
       </c>
       <c r="L35" s="1">
-        <v>14.1171</v>
+        <v>14.1182</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -12828,10 +12831,10 @@
         <v>355099.7107</v>
       </c>
       <c r="K36" s="1">
-        <v>417372.7611</v>
+        <v>417403.3823</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0273</v>
+        <v>14.0283</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -12881,10 +12884,10 @@
         <v>372547.8889</v>
       </c>
       <c r="K37" s="1">
-        <v>427372.7611</v>
+        <v>427403.3823</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9715</v>
+        <v>13.9725</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -12934,10 +12937,10 @@
         <v>415774.6437</v>
       </c>
       <c r="K38" s="1">
-        <v>437372.7611</v>
+        <v>437403.3823</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9261</v>
+        <v>13.9271</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.4338</v>
@@ -12987,10 +12990,10 @@
         <v>442836.8311</v>
       </c>
       <c r="K39" s="1">
-        <v>458384.7521</v>
+        <v>458415.3732</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8776</v>
+        <v>13.8785</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9657</v>
@@ -13040,10 +13043,10 @@
         <v>437021.2984</v>
       </c>
       <c r="K40" s="1">
-        <v>468384.7521</v>
+        <v>468415.3732</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8684</v>
+        <v>13.8693</v>
       </c>
       <c r="M40" s="1">
         <v>0.3</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3568</v>
@@ -13093,10 +13096,10 @@
         <v>469582.3616</v>
       </c>
       <c r="K41" s="1">
-        <v>478384.7521</v>
+        <v>478415.3732</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8489</v>
+        <v>13.8498</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2487</v>
@@ -13146,10 +13149,10 @@
         <v>475624.5924</v>
       </c>
       <c r="K42" s="1">
-        <v>497503.5754</v>
+        <v>497534.1966</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8304</v>
+        <v>13.8313</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3991</v>
@@ -13199,10 +13202,10 @@
         <v>491097.0837</v>
       </c>
       <c r="K43" s="1">
-        <v>507503.5754</v>
+        <v>507534.1966</v>
       </c>
       <c r="L43" s="1">
-        <v>13.819</v>
+        <v>13.8199</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.5985</v>
@@ -13252,10 +13255,10 @@
         <v>521734.6304</v>
       </c>
       <c r="K44" s="1">
-        <v>517503.5754</v>
+        <v>517534.1966</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8112</v>
+        <v>13.812</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.6955</v>
@@ -13305,10 +13308,10 @@
         <v>535433.9635</v>
       </c>
       <c r="K45" s="1">
-        <v>540724.5584</v>
+        <v>540755.1795</v>
       </c>
       <c r="L45" s="1">
-        <v>13.8032</v>
+        <v>13.8039</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3398</v>
@@ -13358,10 +13361,10 @@
         <v>531228.5734</v>
       </c>
       <c r="K46" s="1">
-        <v>550724.5584</v>
+        <v>550755.1795</v>
       </c>
       <c r="L46" s="1">
-        <v>13.8017</v>
+        <v>13.8025</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.8469</v>
@@ -13411,10 +13414,10 @@
         <v>531966.2051</v>
       </c>
       <c r="K47" s="1">
-        <v>560724.5584</v>
+        <v>560755.1795</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7937</v>
+        <v>13.7944</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.129</v>
@@ -13464,10 +13467,10 @@
         <v>553780.749</v>
       </c>
       <c r="K48" s="1">
-        <v>581498.2861</v>
+        <v>581528.9073</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7585</v>
+        <v>13.7592</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.716</v>
@@ -13517,10 +13520,10 @@
         <v>546010.2539</v>
       </c>
       <c r="K49" s="1">
-        <v>591498.2861</v>
+        <v>591528.9073</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7479</v>
+        <v>13.7486</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.4613</v>
@@ -13570,10 +13573,10 @@
         <v>556450.5917</v>
       </c>
       <c r="K50" s="1">
-        <v>601498.2861</v>
+        <v>601528.9073</v>
       </c>
       <c r="L50" s="1">
-        <v>13.7298</v>
+        <v>13.7305</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.6545</v>
@@ -13623,10 +13626,10 @@
         <v>575144.4787</v>
       </c>
       <c r="K51" s="1">
-        <v>623114.9763</v>
+        <v>623145.5975</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6826</v>
+        <v>13.6832</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2345</v>
@@ -13676,10 +13679,10 @@
         <v>565683.1687</v>
       </c>
       <c r="K52" s="1">
-        <v>633114.9763</v>
+        <v>633145.5975</v>
       </c>
       <c r="L52" s="1">
-        <v>13.6655</v>
+        <v>13.6661</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.1636</v>
@@ -13729,10 +13732,10 @@
         <v>584818.995</v>
       </c>
       <c r="K53" s="1">
-        <v>643114.9763</v>
+        <v>643145.5975</v>
       </c>
       <c r="L53" s="1">
-        <v>13.6411</v>
+        <v>13.6418</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.8145</v>
@@ -13782,10 +13785,10 @@
         <v>577660.2289</v>
       </c>
       <c r="K54" s="1">
-        <v>665623.9407</v>
+        <v>665654.5619</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5864</v>
+        <v>13.587</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2352</v>
@@ -13835,10 +13838,10 @@
         <v>558804.6579</v>
       </c>
       <c r="K55" s="1">
-        <v>675623.9407</v>
+        <v>675654.5619</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5567</v>
+        <v>13.5574</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.8241</v>
@@ -13888,10 +13891,10 @@
         <v>561408.1259</v>
       </c>
       <c r="K56" s="1">
-        <v>685623.9407</v>
+        <v>685654.5619</v>
       </c>
       <c r="L56" s="1">
-        <v>13.5165</v>
+        <v>13.5171</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2543</v>
@@ -13941,10 +13944,10 @@
         <v>594024.2513</v>
       </c>
       <c r="K57" s="1">
-        <v>709079.8664000001</v>
+        <v>709110.4875</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4073</v>
+        <v>13.4078</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5675</v>
@@ -13994,10 +13997,10 @@
         <v>567127.2261</v>
       </c>
       <c r="K58" s="1">
-        <v>719079.8664000001</v>
+        <v>719110.4875</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3721</v>
+        <v>13.3727</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967000000000001</v>
@@ -14047,10 +14050,10 @@
         <v>558813.3593</v>
       </c>
       <c r="K59" s="1">
-        <v>729079.8664000001</v>
+        <v>729110.4875</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3241</v>
+        <v>13.3247</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0064</v>
@@ -14100,10 +14103,10 @@
         <v>570962.3386</v>
       </c>
       <c r="K60" s="1">
-        <v>753598.9773</v>
+        <v>753629.5984</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1808</v>
+        <v>13.1813</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0129</v>
@@ -14153,10 +14156,10 @@
         <v>581300.4583000001</v>
       </c>
       <c r="K61" s="1">
-        <v>763598.9773</v>
+        <v>763629.5984</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1267</v>
+        <v>13.1272</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4583</v>
@@ -14206,10 +14209,10 @@
         <v>633266.956</v>
       </c>
       <c r="K62" s="1">
-        <v>773598.9773</v>
+        <v>773629.5984</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0746</v>
+        <v>13.0751</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-22</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-21</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-19</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-17</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3636</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8711</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.1252</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-9</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.1934</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1176</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3311</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15.3637</v>
@@ -15345,10 +15348,10 @@
         <v>234889.0032</v>
       </c>
       <c r="K21" s="1">
-        <v>193138.376</v>
+        <v>193139.8104</v>
       </c>
       <c r="L21" s="1">
-        <v>13.5575</v>
+        <v>13.5576</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.6447</v>
@@ -15398,10 +15401,10 @@
         <v>234015.5311</v>
       </c>
       <c r="K22" s="1">
-        <v>205994.8295</v>
+        <v>205996.2639</v>
       </c>
       <c r="L22" s="1">
-        <v>13.6592</v>
+        <v>13.6593</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.486</v>
@@ -15451,10 +15454,10 @@
         <v>271506.5281</v>
       </c>
       <c r="K23" s="1">
-        <v>229595.801</v>
+        <v>229597.2354</v>
       </c>
       <c r="L23" s="1">
-        <v>13.757</v>
+        <v>13.7571</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.1958</v>
@@ -15504,7 +15507,7 @@
         <v>293347.7447</v>
       </c>
       <c r="K24" s="1">
-        <v>230039.7283</v>
+        <v>230041.1628</v>
       </c>
       <c r="L24" s="1">
         <v>13.7601</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4264</v>
@@ -15557,10 +15560,10 @@
         <v>307217.0151</v>
       </c>
       <c r="K25" s="1">
-        <v>232080.5239</v>
+        <v>232081.9584</v>
       </c>
       <c r="L25" s="1">
-        <v>13.7785</v>
+        <v>13.7786</v>
       </c>
       <c r="M25" s="1">
         <v>0.75</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>17.107</v>
@@ -15610,10 +15613,10 @@
         <v>340408.7054</v>
       </c>
       <c r="K26" s="1">
-        <v>242327.7797</v>
+        <v>242329.2142</v>
       </c>
       <c r="L26" s="1">
-        <v>13.874</v>
+        <v>13.8741</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.8894</v>
@@ -15663,7 +15666,7 @@
         <v>346574.3329</v>
       </c>
       <c r="K27" s="1">
-        <v>244769.4679</v>
+        <v>244770.9024</v>
       </c>
       <c r="L27" s="1">
         <v>13.9005</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4004</v>
@@ -15716,10 +15719,10 @@
         <v>363224.7937</v>
       </c>
       <c r="K28" s="1">
-        <v>263177.0659</v>
+        <v>263178.5004</v>
       </c>
       <c r="L28" s="1">
-        <v>14.0763</v>
+        <v>14.0764</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3877</v>
@@ -15769,10 +15772,10 @@
         <v>352759.7672</v>
       </c>
       <c r="K29" s="1">
-        <v>287123.7617</v>
+        <v>287125.1961</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2467</v>
+        <v>14.2468</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6367</v>
@@ -15822,7 +15825,7 @@
         <v>345789.2701</v>
       </c>
       <c r="K30" s="1">
-        <v>322582.7172</v>
+        <v>322584.1516</v>
       </c>
       <c r="L30" s="1">
         <v>14.3668</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.0061</v>
@@ -15875,7 +15878,7 @@
         <v>316054.7613</v>
       </c>
       <c r="K31" s="1">
-        <v>350386.032</v>
+        <v>350387.4665</v>
       </c>
       <c r="L31" s="1">
         <v>14.3901</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.835</v>
@@ -15928,7 +15931,7 @@
         <v>357748.2886</v>
       </c>
       <c r="K32" s="1">
-        <v>360386.032</v>
+        <v>360387.4665</v>
       </c>
       <c r="L32" s="1">
         <v>14.3486</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.4216</v>
@@ -15981,7 +15984,7 @@
         <v>383255.39</v>
       </c>
       <c r="K33" s="1">
-        <v>381343.162</v>
+        <v>381344.5964</v>
       </c>
       <c r="L33" s="1">
         <v>14.321</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.2404</v>
@@ -16034,7 +16037,7 @@
         <v>361007.5715</v>
       </c>
       <c r="K34" s="1">
-        <v>391343.162</v>
+        <v>391344.5964</v>
       </c>
       <c r="L34" s="1">
         <v>14.3243</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.382</v>
@@ -16087,7 +16090,7 @@
         <v>356751.8923</v>
       </c>
       <c r="K35" s="1">
-        <v>401343.162</v>
+        <v>401344.5964</v>
       </c>
       <c r="L35" s="1">
         <v>14.2959</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>11.9583</v>
@@ -16140,7 +16143,7 @@
         <v>354126.9392</v>
       </c>
       <c r="K36" s="1">
-        <v>421178.4661</v>
+        <v>421179.9006</v>
       </c>
       <c r="L36" s="1">
         <v>14.1941</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.2036</v>
@@ -16193,7 +16196,7 @@
         <v>371555.1638</v>
       </c>
       <c r="K37" s="1">
-        <v>431178.4661</v>
+        <v>431179.9006</v>
       </c>
       <c r="L37" s="1">
         <v>14.1336</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.9136</v>
@@ -16246,10 +16249,10 @@
         <v>414694.8172</v>
       </c>
       <c r="K38" s="1">
-        <v>441178.4661</v>
+        <v>441179.9006</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0838</v>
+        <v>14.0839</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.4338</v>
@@ -16299,10 +16302,10 @@
         <v>441713.6327</v>
       </c>
       <c r="K39" s="1">
-        <v>462161.1135</v>
+        <v>462162.548</v>
       </c>
       <c r="L39" s="1">
-        <v>14.0275</v>
+        <v>14.0276</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9657</v>
@@ -16352,10 +16355,10 @@
         <v>435937.2327</v>
       </c>
       <c r="K40" s="1">
-        <v>472161.1135</v>
+        <v>472162.548</v>
       </c>
       <c r="L40" s="1">
-        <v>14.015</v>
+        <v>14.0151</v>
       </c>
       <c r="M40" s="1">
         <v>0.3</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3568</v>
@@ -16405,7 +16408,7 @@
         <v>468442.9774</v>
       </c>
       <c r="K41" s="1">
-        <v>482161.1135</v>
+        <v>482162.548</v>
       </c>
       <c r="L41" s="1">
         <v>13.9922</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.2487</v>
@@ -16458,7 +16461,7 @@
         <v>474494.5207</v>
       </c>
       <c r="K42" s="1">
-        <v>501257.3169</v>
+        <v>501258.7514</v>
       </c>
       <c r="L42" s="1">
         <v>13.968</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3991</v>
@@ -16511,10 +16514,10 @@
         <v>489954.1833</v>
       </c>
       <c r="K43" s="1">
-        <v>511257.3169</v>
+        <v>511258.7514</v>
       </c>
       <c r="L43" s="1">
-        <v>13.9537</v>
+        <v>13.9538</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.5985</v>
@@ -16564,7 +16567,7 @@
         <v>520543.9534</v>
       </c>
       <c r="K44" s="1">
-        <v>521257.3169</v>
+        <v>521258.7514</v>
       </c>
       <c r="L44" s="1">
         <v>13.9432</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.6955</v>
@@ -16617,7 +16620,7 @@
         <v>534234.9176</v>
       </c>
       <c r="K45" s="1">
-        <v>544447.5315</v>
+        <v>544448.9659</v>
       </c>
       <c r="L45" s="1">
         <v>13.9294</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3398</v>
@@ -16670,7 +16673,7 @@
         <v>530060.6701</v>
       </c>
       <c r="K46" s="1">
-        <v>554447.5315</v>
+        <v>554448.9659</v>
       </c>
       <c r="L46" s="1">
         <v>13.9256</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.8469</v>
@@ -16723,7 +16726,7 @@
         <v>530817.7682</v>
       </c>
       <c r="K47" s="1">
-        <v>564447.5315</v>
+        <v>564448.9659</v>
       </c>
       <c r="L47" s="1">
         <v>13.9153</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.129</v>
@@ -16776,10 +16779,10 @@
         <v>552607.1939</v>
       </c>
       <c r="K48" s="1">
-        <v>585197.5732</v>
+        <v>585199.0077</v>
       </c>
       <c r="L48" s="1">
-        <v>13.8754</v>
+        <v>13.8755</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.716</v>
@@ -16829,7 +16832,7 @@
         <v>544873.6089</v>
       </c>
       <c r="K49" s="1">
-        <v>595197.5732</v>
+        <v>595199.0077</v>
       </c>
       <c r="L49" s="1">
         <v>13.8627</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.4613</v>
@@ -16882,7 +16885,7 @@
         <v>555312.5315</v>
       </c>
       <c r="K50" s="1">
-        <v>605197.5732</v>
+        <v>605199.0077</v>
       </c>
       <c r="L50" s="1">
         <v>13.8426</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.6545</v>
@@ -16935,7 +16938,7 @@
         <v>573988.8735</v>
       </c>
       <c r="K51" s="1">
-        <v>626790.0806</v>
+        <v>626791.5151</v>
       </c>
       <c r="L51" s="1">
         <v>13.791</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2345</v>
@@ -16988,7 +16991,7 @@
         <v>564565.9213</v>
       </c>
       <c r="K52" s="1">
-        <v>636790.0806</v>
+        <v>636791.5151</v>
       </c>
       <c r="L52" s="1">
         <v>13.772</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.1636</v>
@@ -17041,7 +17044,7 @@
         <v>583683.5111999999</v>
       </c>
       <c r="K53" s="1">
-        <v>646790.0806</v>
+        <v>646791.5151</v>
       </c>
       <c r="L53" s="1">
         <v>13.7458</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.8145</v>
@@ -17094,7 +17097,7 @@
         <v>576557.4296</v>
       </c>
       <c r="K54" s="1">
-        <v>669274.3393</v>
+        <v>669275.7738</v>
       </c>
       <c r="L54" s="1">
         <v>13.687</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>11.2352</v>
@@ -17147,7 +17150,7 @@
         <v>557755.9374000001</v>
       </c>
       <c r="K55" s="1">
-        <v>679274.3393</v>
+        <v>679275.7738</v>
       </c>
       <c r="L55" s="1">
         <v>13.6556</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.8241</v>
@@ -17200,10 +17203,10 @@
         <v>560372.5277</v>
       </c>
       <c r="K56" s="1">
-        <v>689274.3393</v>
+        <v>689275.7738</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6135</v>
+        <v>13.6136</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2543</v>
@@ -17253,7 +17256,7 @@
         <v>592947.5926</v>
       </c>
       <c r="K57" s="1">
-        <v>712705.012</v>
+        <v>712706.4464</v>
       </c>
       <c r="L57" s="1">
         <v>13.5003</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5675</v>
@@ -17306,7 +17309,7 @@
         <v>566116.2686</v>
       </c>
       <c r="K58" s="1">
-        <v>722705.012</v>
+        <v>722706.4464</v>
       </c>
       <c r="L58" s="1">
         <v>13.4636</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.967000000000001</v>
@@ -17359,10 +17362,10 @@
         <v>557833.9679</v>
       </c>
       <c r="K59" s="1">
-        <v>732705.012</v>
+        <v>732706.4464</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4138</v>
+        <v>13.4139</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.0064</v>
@@ -17412,7 +17415,7 @@
         <v>569979.1814</v>
       </c>
       <c r="K60" s="1">
-        <v>757198.2412</v>
+        <v>757199.6756</v>
       </c>
       <c r="L60" s="1">
         <v>13.2666</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.0129</v>
@@ -17465,7 +17468,7 @@
         <v>580316.6613</v>
       </c>
       <c r="K61" s="1">
-        <v>767198.2412</v>
+        <v>767199.6756</v>
       </c>
       <c r="L61" s="1">
         <v>13.211</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.4583</v>
@@ -17518,10 +17521,10 @@
         <v>632212.8167</v>
       </c>
       <c r="K62" s="1">
-        <v>777198.2412</v>
+        <v>777199.6756</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1573</v>
+        <v>13.1574</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>12.9</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6426</v>
+        <v>12.646</v>
       </c>
       <c r="E3" s="1">
-        <v>12.933</v>
+        <v>12.9346</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0746</v>
+        <v>13.0751</v>
       </c>
       <c r="G3" s="1">
-        <v>13.1573</v>
+        <v>13.1574</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>192879.3581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8292</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8463000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8275</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8186</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8134</v>
       </c>
     </row>
   </sheetData>
